--- a/biology/Botanique/Pteridophyllaceae/Pteridophyllaceae.xlsx
+++ b/biology/Botanique/Pteridophyllaceae/Pteridophyllaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Ptéridophyllacées est une famille de plantes dicotylédones qui comprend une espèce Pteridophyllum racemosum. 
 Ce sont des plantes herbacées pérennes, sans tiges, aux feuilles très découpées, en rosette basale, des régions tempérées, originaires du Japon.
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre type Pteridophyllum, issu du grec πτέρης / pteris, « aile ; fougère », et φύλλων / fyllon, feuille, en référence à la forme des feuilles qui font penser à celle des fougères.
 </t>
@@ -543,10 +557,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anciennement placée dans les Fumariaceae, cette famille a ensuite été considérée comme une famille potentiellement à part par la classification phylogénétique APG II (2003)[1]. Pour celle-ci, les Pteridophyllaceae étaient une famille optionnelle, ou sinon insérée parmi les Papaveraceae.
-En classification phylogénétique APG III (2009)[2] cette famille est invalide ; cette espèce est incorporée dans la famille Papaveraceae.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anciennement placée dans les Fumariaceae, cette famille a ensuite été considérée comme une famille potentiellement à part par la classification phylogénétique APG II (2003). Pour celle-ci, les Pteridophyllaceae étaient une famille optionnelle, ou sinon insérée parmi les Papaveraceae.
+En classification phylogénétique APG III (2009) cette famille est invalide ; cette espèce est incorporée dans la famille Papaveraceae.
 </t>
         </is>
       </c>
